--- a/論文提出/提出フォルダ/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
+++ b/論文提出/提出フォルダ/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamoruk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20490721-0F59-2040-81C5-F898F35A5D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226EECE-7356-1041-99D1-4D9F8E7033B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,13 +399,56 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>Mizuho Information &amp; Research Institute, Inc.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ryota Matsuguma</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③株式会社は　㈱　で統一いただければと思います。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テクニカル・エキスパート本部</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>北川　衛</t>
+    <rPh sb="0" eb="2">
+      <t>キタガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マモル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IBM Japan Co., Ltd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Mamoru Kitaagwa</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ＩＴマネジメント事業部</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="MS Mincho"/>
         <family val="1"/>
+        <charset val="128"/>
       </rPr>
-      <t>SCSK</t>
+      <t>ＳＣＳＫ</t>
     </r>
     <r>
       <rPr>
@@ -419,65 +462,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マネジメント事業部</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Mizuho Information &amp; Research Institute, Inc.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Ryota Matsuguma</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>③株式会社は　㈱　で統一いただければと思います。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>日本アイ・ビー・エム株式会社</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テクニカル・エキスパート本部</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>北川　衛</t>
-    <rPh sb="0" eb="2">
-      <t>キタガワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マモル</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>IBM Japan Co., Ltd</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Mamoru Kitaagwa</t>
+    <t>日本アイ・ビー・エム（株）</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -485,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -521,6 +506,12 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -572,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +968,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1008,10 +1002,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>5</v>
@@ -1068,14 +1062,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1115,12 +1109,12 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1137,7 +1131,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="16" t="s">
@@ -1163,13 +1157,13 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="7" t="s">
-        <v>87</v>
+      <c r="A23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1248,7 +1242,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1">

--- a/論文提出/提出フォルダ/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
+++ b/論文提出/提出フォルダ/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamoruk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\くぴぽ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226EECE-7356-1041-99D1-4D9F8E7033B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7469DB5-A9FA-48EC-9D97-857E59EB2DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入用紙" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>[IA-001]サーバレスアーキテクチャのビジネス適用</t>
   </si>
@@ -36,36 +36,6 @@
   </si>
   <si>
     <t>所属</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リーダー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サブリーダー</t>
-    </r>
   </si>
   <si>
     <t>氏名</t>
@@ -315,14 +285,14 @@
   </si>
   <si>
     <t>三井住友トラスト・システム＆サービス（株）</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ニッセイ情報テクノロジー（株）</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ヘルスケアソリューション事業部</t>
@@ -332,7 +302,7 @@
     <rPh sb="14" eb="15">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>貴田　潤平</t>
@@ -342,15 +312,15 @@
     <rPh sb="3" eb="5">
       <t>ジュンペイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Nissay Information Technology Co.,Ltd.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Junpei Kida</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>みずほ情報総研（株）</t>
@@ -360,7 +330,7 @@
     <rPh sb="8" eb="9">
       <t>カブ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>開発本部第３事業部第５部</t>
@@ -382,11 +352,11 @@
     <rPh sb="11" eb="12">
       <t xml:space="preserve">ブ </t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>石野　大輔</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>松隈　涼太</t>
@@ -396,23 +366,23 @@
     <rPh sb="2" eb="4">
       <t>リョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Mizuho Information &amp; Research Institute, Inc.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Ryota Matsuguma</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>③株式会社は　㈱　で統一いただければと思います。</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テクニカル・エキスパート本部</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>北川　衛</t>
@@ -422,55 +392,52 @@
     <rPh sb="3" eb="4">
       <t>マモル</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>IBM Japan Co., Ltd</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Mamoru Kitaagwa</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ＩＴマネジメント事業部</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ＳＣＳＫ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（株）</t>
-    </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日本アイ・ビー・エム（株）</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＳＣＳＫ（株）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -482,12 +449,6 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -507,14 +468,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +488,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -557,13 +518,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,12 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,20 +564,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -624,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,16 +588,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,25 +953,25 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -994,189 +979,200 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="7" t="s">
+      <c r="B11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="19"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="7" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="7" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="24" t="s">
+      <c r="B23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" s="18" customFormat="1">
-      <c r="C25" s="19"/>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1190,106 +1186,106 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="21"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="21" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1303,290 +1299,290 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30">
-      <c r="A19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10" t="s">
-        <v>59</v>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
